--- a/data/trans_orig/IP2902-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2902-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FE9C77D-D32D-4301-B57B-C93EA439D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE9C668-D592-473A-A380-ED093890FC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6726839E-5888-4930-9E0F-3AB853E016F6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{74BA1295-BA07-43DE-916D-67D61DF20942}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="381">
   <si>
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2007 (Tasa respuesta: 97,01%)</t>
   </si>
@@ -71,6 +71,99 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>Solo biberon</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -86,102 +179,183 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>Solo biberon</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
@@ -191,175 +365,82 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -371,169 +452,256 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
   </si>
   <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
   </si>
   <si>
     <t>0,49%</t>
@@ -545,171 +713,6 @@
     <t>0,26%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
     <t>55,99%</t>
   </si>
   <si>
@@ -794,255 +797,255 @@
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2015 (Tasa respuesta: 97,51%)</t>
   </si>
   <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
     <t>64,91%</t>
   </si>
   <si>
@@ -1118,6 +1121,15 @@
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -1130,13 +1142,31 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -1148,37 +1178,10 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,1%</t>
   </si>
   <si>
     <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4DD4D5-786C-48A6-BC72-CD60966C94CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F88D75E-D768-4C2A-B909-86835A86562A}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1684,206 +1687,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>128662</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>131969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>260631</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>128662</v>
+        <v>24774</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>131969</v>
+        <v>21085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>394</v>
+        <v>70</v>
       </c>
       <c r="N5" s="7">
-        <v>260631</v>
+        <v>45859</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55891</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
+        <v>75</v>
+      </c>
+      <c r="I6" s="7">
+        <v>49214</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7">
+        <v>158</v>
+      </c>
+      <c r="N6" s="7">
+        <v>105105</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="7">
-        <v>24774</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7">
-        <v>21085</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="7">
-        <v>70</v>
-      </c>
-      <c r="N6" s="7">
-        <v>45859</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>55891</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>49214</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>105105</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,13 +1901,13 @@
         <v>209327</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>308</v>
@@ -1913,13 +1916,13 @@
         <v>202268</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>622</v>
@@ -1928,219 +1931,219 @@
         <v>411595</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>120200</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>117628</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>237828</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>274</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>183289</v>
+        <v>34851</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>172892</v>
+        <v>32922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>529</v>
+        <v>100</v>
       </c>
       <c r="N10" s="7">
-        <v>356180</v>
+        <v>67772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7">
-        <v>32510</v>
+        <v>58291</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I11" s="7">
-        <v>24310</v>
+        <v>49679</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="N11" s="7">
-        <v>56820</v>
+        <v>107970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>60827</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>61298</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>122125</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,255 +2152,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>415</v>
+        <v>323</v>
       </c>
       <c r="D13" s="7">
-        <v>276625</v>
+        <v>213342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>384</v>
+        <v>297</v>
       </c>
       <c r="I13" s="7">
-        <v>258500</v>
+        <v>200229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>799</v>
+        <v>620</v>
       </c>
       <c r="N13" s="7">
-        <v>535125</v>
+        <v>413571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>183289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>172892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>356180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7">
-        <v>120200</v>
+        <v>32510</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7">
-        <v>117628</v>
+        <v>24310</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="7">
         <v>85</v>
       </c>
-      <c r="M15" s="7">
-        <v>358</v>
-      </c>
       <c r="N15" s="7">
-        <v>237828</v>
+        <v>56820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>34851</v>
+        <v>60827</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7">
-        <v>32922</v>
+        <v>61298</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N16" s="7">
-        <v>67772</v>
+        <v>122125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>58291</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>49679</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>107970</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,255 +2409,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="D18" s="7">
-        <v>213342</v>
+        <v>276625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="I18" s="7">
-        <v>200229</v>
+        <v>258500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>620</v>
+        <v>799</v>
       </c>
       <c r="N18" s="7">
-        <v>413571</v>
+        <v>535125</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>432150</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>422489</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>854639</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>652</v>
+        <v>136</v>
       </c>
       <c r="D20" s="7">
-        <v>432150</v>
+        <v>92135</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>629</v>
+        <v>119</v>
       </c>
       <c r="I20" s="7">
-        <v>422489</v>
+        <v>78317</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>1281</v>
+        <v>255</v>
       </c>
       <c r="N20" s="7">
-        <v>854639</v>
+        <v>170451</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="D21" s="7">
-        <v>92135</v>
+        <v>175009</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="I21" s="7">
-        <v>78317</v>
+        <v>160191</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
-        <v>255</v>
+        <v>505</v>
       </c>
       <c r="N21" s="7">
-        <v>170451</v>
+        <v>335200</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>175009</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>160191</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>335200</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2672,13 @@
         <v>699294</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>989</v>
@@ -2684,13 +2687,13 @@
         <v>660997</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2041</v>
@@ -2699,13 +2702,13 @@
         <v>1360291</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2724,7 +2727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05048CAB-30E7-4B6F-A9A0-04F8330DDB0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2050BDFB-7B9E-43C1-8FD9-4D2F5C6274FD}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2741,7 +2744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2838,206 +2841,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>124786</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>129998</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>254784</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>124786</v>
+        <v>37187</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>129998</v>
+        <v>24791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M5" s="7">
-        <v>368</v>
+        <v>91</v>
       </c>
       <c r="N5" s="7">
-        <v>254784</v>
+        <v>61978</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>37187</v>
+        <v>72647</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H6" s="7">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="I6" s="7">
-        <v>24791</v>
+        <v>65766</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M6" s="7">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="N6" s="7">
-        <v>61978</v>
+        <v>138413</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>72647</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>65766</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>138413</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3055,13 @@
         <v>234620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>332</v>
@@ -3067,13 +3070,13 @@
         <v>220555</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>664</v>
@@ -3082,219 +3085,219 @@
         <v>455175</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>135718</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>137684</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>273402</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>153315</v>
+        <v>24072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>152094</v>
+        <v>25696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
-        <v>440</v>
+        <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>305409</v>
+        <v>49768</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7">
-        <v>30261</v>
+        <v>78771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>30538</v>
+        <v>65417</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="N11" s="7">
-        <v>60800</v>
+        <v>144189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>82393</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>70371</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M12" s="7">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>152764</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,255 +3306,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="D13" s="7">
-        <v>265969</v>
+        <v>238561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="I13" s="7">
-        <v>253003</v>
+        <v>228797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>752</v>
+        <v>651</v>
       </c>
       <c r="N13" s="7">
-        <v>518972</v>
+        <v>467358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>153315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>152094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>305409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="D15" s="7">
-        <v>135718</v>
+        <v>30261</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H15" s="7">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="I15" s="7">
-        <v>137684</v>
+        <v>30538</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M15" s="7">
-        <v>379</v>
+        <v>88</v>
       </c>
       <c r="N15" s="7">
-        <v>273402</v>
+        <v>60800</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="D16" s="7">
-        <v>24072</v>
+        <v>82393</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>25696</v>
+        <v>70371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="N16" s="7">
-        <v>49768</v>
+        <v>152764</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>78771</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>65417</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>144189</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,255 +3563,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>331</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>238561</v>
+        <v>265969</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="I18" s="7">
-        <v>228797</v>
+        <v>253003</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>651</v>
+        <v>752</v>
       </c>
       <c r="N18" s="7">
-        <v>467358</v>
+        <v>518972</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>413819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>419776</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>833594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>586</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7">
-        <v>413819</v>
+        <v>91520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H20" s="7">
-        <v>601</v>
+        <v>117</v>
       </c>
       <c r="I20" s="7">
-        <v>419776</v>
+        <v>81025</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
-        <v>1187</v>
+        <v>249</v>
       </c>
       <c r="N20" s="7">
-        <v>833594</v>
+        <v>172545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="D21" s="7">
-        <v>91520</v>
+        <v>233811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="I21" s="7">
-        <v>81025</v>
+        <v>201554</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M21" s="7">
+        <v>631</v>
+      </c>
+      <c r="N21" s="7">
+        <v>435365</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="N21" s="7">
-        <v>172545</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>233811</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>201554</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>631</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>435365</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3826,13 @@
         <v>739150</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>1012</v>
@@ -3838,13 +3841,13 @@
         <v>702355</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2067</v>
@@ -3853,13 +3856,13 @@
         <v>1441504</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14CC76A-8A5E-443B-A5D2-835DC9929D38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EAF548-3389-4F75-9882-29F7824627FA}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3895,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3992,206 +3995,206 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>120492</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>139086</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>259578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7">
-        <v>120492</v>
+        <v>41951</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7">
-        <v>139086</v>
+        <v>30982</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M5" s="7">
-        <v>404</v>
+        <v>115</v>
       </c>
       <c r="N5" s="7">
-        <v>259578</v>
+        <v>72933</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="7">
-        <v>41951</v>
+        <v>43251</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I6" s="7">
-        <v>30982</v>
+        <v>26780</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M6" s="7">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N6" s="7">
-        <v>72933</v>
+        <v>70031</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>43251</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>272</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>26780</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>70031</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4209,13 @@
         <v>205694</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>319</v>
@@ -4221,13 +4224,13 @@
         <v>196848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>629</v>
@@ -4236,219 +4239,219 @@
         <v>402542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>171442</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>146283</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>285</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>317725</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>178063</v>
+        <v>34616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H10" s="7">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>158350</v>
+        <v>42091</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
-        <v>461</v>
+        <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>336413</v>
+        <v>76707</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>39181</v>
+        <v>41348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H11" s="7">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>34474</v>
+        <v>44706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>73656</v>
+        <v>86053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>53750</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>66377</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>301</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M12" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>120127</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,255 +4460,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D13" s="7">
-        <v>270994</v>
+        <v>247405</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="I13" s="7">
-        <v>259202</v>
+        <v>233080</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="N13" s="7">
-        <v>530196</v>
+        <v>480485</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>178063</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>158350</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>336413</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>245</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7">
-        <v>171442</v>
+        <v>39181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="I15" s="7">
-        <v>146283</v>
+        <v>34474</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M15" s="7">
-        <v>471</v>
+        <v>100</v>
       </c>
       <c r="N15" s="7">
-        <v>317725</v>
+        <v>73656</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>34616</v>
+        <v>53750</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="I16" s="7">
-        <v>42091</v>
+        <v>66377</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M16" s="7">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="N16" s="7">
-        <v>76707</v>
+        <v>120127</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>41348</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H17" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>44706</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>86053</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,255 +4717,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D18" s="7">
-        <v>247405</v>
+        <v>270994</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="I18" s="7">
-        <v>233080</v>
+        <v>259202</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="N18" s="7">
-        <v>480485</v>
+        <v>530196</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>469996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>443719</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1336</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>913715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>667</v>
+        <v>168</v>
       </c>
       <c r="D20" s="7">
-        <v>469996</v>
+        <v>115748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
-        <v>669</v>
+        <v>162</v>
       </c>
       <c r="I20" s="7">
-        <v>443719</v>
+        <v>107548</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
-        <v>1336</v>
+        <v>330</v>
       </c>
       <c r="N20" s="7">
-        <v>913715</v>
+        <v>223296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>341</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="D21" s="7">
-        <v>115748</v>
+        <v>138348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="I21" s="7">
-        <v>107548</v>
+        <v>137863</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M21" s="7">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="N21" s="7">
-        <v>223296</v>
+        <v>276211</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>138348</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>137863</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>276211</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>357</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4980,13 @@
         <v>724092</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>1038</v>
@@ -4992,13 +4995,13 @@
         <v>689130</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>2073</v>
@@ -5007,13 +5010,13 @@
         <v>1413222</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5032,7 +5035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EC3DC5-B193-4992-9520-7A2D673DB330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEA476E-2192-4E40-8977-C7EAC3EC9941}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5049,7 +5052,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5146,59 +5149,59 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>117938</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="H4" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>103803</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" s="7">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>221741</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -5207,13 +5210,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5222,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5237,19 +5240,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -5258,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5273,13 +5276,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5288,64 +5291,64 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>117938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="7">
+        <v>199</v>
+      </c>
+      <c r="I7" s="7">
+        <v>103803</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>364</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>221741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5363,13 @@
         <v>117938</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>199</v>
@@ -5375,13 +5378,13 @@
         <v>103803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>426</v>
@@ -5390,72 +5393,72 @@
         <v>221741</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="5">
-        <v>994</v>
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>366</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="H9" s="7">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
-        <v>351641</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="M9" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>754351</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -5464,49 +5467,49 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -5515,94 +5518,94 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>205055</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>369</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>198267</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>370</v>
+        <v>46</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>403323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,108 +5614,108 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I13" s="7">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="N13" s="7">
-        <v>754351</v>
+        <v>403323</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="5">
-        <v>994</v>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>205055</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>198267</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>403323</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -5721,49 +5724,49 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -5772,94 +5775,94 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>402710</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>351641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>46</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>754351</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,108 +5871,108 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I18" s="7">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="N18" s="7">
-        <v>403323</v>
+        <v>754351</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>994</v>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>725704</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>653712</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>1379416</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>41</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5978,13 +5981,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5993,13 +5996,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6008,10 +6011,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>379</v>
@@ -6020,7 +6023,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -6029,13 +6032,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6044,13 +6047,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6059,10 +6062,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>379</v>
@@ -6071,52 +6074,52 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>725704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>653712</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>1379416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6134,13 @@
         <v>725704</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>943</v>
@@ -6146,13 +6149,13 @@
         <v>653712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
         <v>1920</v>
@@ -6161,13 +6164,13 @@
         <v>1379416</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2902-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2902-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3411AB07-0153-4DC2-9F02-A606570364E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F08B6D-2B3F-4AA3-AE6B-500957E5ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{20EB9A00-E3F7-4B03-89BE-2BA42728257D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F75B10F-5D17-4C2E-8FDB-C9F06A1D3CA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="414">
   <si>
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2007 (Tasa respuesta: 97,01%)</t>
   </si>
@@ -76,1177 +76,1210 @@
     <t>27,8%</t>
   </si>
   <si>
-    <t>21,49%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
   </si>
   <si>
     <t>29,94%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>55,99%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2015 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>17,36%</t>
+    <t>14,24%</t>
   </si>
   <si>
     <t>64,91%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
   </si>
   <si>
     <t>64,39%</t>
   </si>
   <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FAC1F5-848A-4AA0-8938-F6187077B3DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7947C61F-59C9-4312-8217-DA2CEE6F1A88}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2418,10 +2451,10 @@
         <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -2430,13 +2463,13 @@
         <v>88271</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2484,13 @@
         <v>22959</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -2466,13 +2499,13 @@
         <v>16363</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -2481,7 +2514,7 @@
         <v>39322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>113</v>
@@ -2633,7 +2666,7 @@
         <v>505</v>
       </c>
       <c r="N20" s="7">
-        <v>335200</v>
+        <v>335201</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>130</v>
@@ -2660,10 +2693,10 @@
         <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>119</v>
@@ -2672,28 +2705,28 @@
         <v>78317</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>255</v>
       </c>
       <c r="N21" s="7">
-        <v>170451</v>
+        <v>170452</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2741,13 @@
         <v>432150</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>629</v>
@@ -2723,28 +2756,28 @@
         <v>422489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>1281</v>
       </c>
       <c r="N22" s="7">
-        <v>854639</v>
+        <v>854640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,7 +2819,7 @@
         <v>2041</v>
       </c>
       <c r="N23" s="7">
-        <v>1360291</v>
+        <v>1360292</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2800,7 +2833,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2820,7 +2853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5285F63F-4D58-4A2B-AB6E-9C9FD15FCE1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27371726-0A8A-4161-ACB7-270BF8302F96}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2837,7 +2870,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2944,13 +2977,13 @@
         <v>41908</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -2959,13 +2992,13 @@
         <v>44492</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>130</v>
@@ -2974,13 +3007,13 @@
         <v>86401</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3028,13 @@
         <v>25208</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -3010,13 +3043,13 @@
         <v>18865</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -3025,13 +3058,13 @@
         <v>44073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3079,13 @@
         <v>75652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
         <v>116</v>
@@ -3061,13 +3094,13 @@
         <v>79032</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>222</v>
@@ -3076,13 +3109,13 @@
         <v>154684</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3183,13 @@
         <v>85257</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>94</v>
@@ -3165,13 +3198,13 @@
         <v>64665</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>212</v>
@@ -3180,13 +3213,13 @@
         <v>149922</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3234,13 @@
         <v>29502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>37</v>
@@ -3216,13 +3249,13 @@
         <v>26161</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -3231,13 +3264,13 @@
         <v>55664</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3285,13 @@
         <v>150153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>207</v>
@@ -3267,13 +3300,13 @@
         <v>144167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>415</v>
@@ -3282,13 +3315,13 @@
         <v>294320</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3389,13 @@
         <v>49138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -3371,13 +3404,13 @@
         <v>47012</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>139</v>
@@ -3386,13 +3419,13 @@
         <v>96149</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3440,13 @@
         <v>22258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -3422,13 +3455,13 @@
         <v>16515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -3437,13 +3470,13 @@
         <v>38773</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3491,13 @@
         <v>83488</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -3473,13 +3506,13 @@
         <v>93516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
@@ -3488,13 +3521,13 @@
         <v>177005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3595,13 @@
         <v>57508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -3577,13 +3610,13 @@
         <v>45386</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>150</v>
@@ -3592,13 +3625,13 @@
         <v>102894</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3646,13 @@
         <v>14552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -3628,13 +3661,13 @@
         <v>19483</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -3643,13 +3676,13 @@
         <v>34035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3697,13 @@
         <v>104526</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H18" s="7">
         <v>146</v>
@@ -3679,13 +3712,13 @@
         <v>103060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>299</v>
@@ -3694,13 +3727,13 @@
         <v>207586</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3801,13 @@
         <v>233811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>294</v>
@@ -3783,13 +3816,13 @@
         <v>201554</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>631</v>
@@ -3798,13 +3831,13 @@
         <v>435365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3852,13 @@
         <v>91520</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H21" s="7">
         <v>117</v>
@@ -3834,13 +3867,13 @@
         <v>81025</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>249</v>
@@ -3849,13 +3882,13 @@
         <v>172545</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3903,13 @@
         <v>413819</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>601</v>
@@ -3885,13 +3918,13 @@
         <v>419776</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>1187</v>
@@ -3900,13 +3933,13 @@
         <v>833594</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,7 +3995,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3982,7 +4015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539411DD-6A64-4FB9-BACC-AE1F8B214B8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A85EB-24FE-42D1-AC8D-5990042121BE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3999,7 +4032,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4106,13 +4139,13 @@
         <v>26170</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>29</v>
@@ -4121,13 +4154,13 @@
         <v>17070</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4136,13 +4169,13 @@
         <v>43241</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4190,13 @@
         <v>24179</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -4172,13 +4205,13 @@
         <v>18151</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -4187,13 +4220,13 @@
         <v>42329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4241,13 @@
         <v>68362</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H6" s="7">
         <v>146</v>
@@ -4223,13 +4256,13 @@
         <v>92626</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>251</v>
@@ -4238,13 +4271,13 @@
         <v>160989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4345,13 @@
         <v>41988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>56</v>
@@ -4327,13 +4360,13 @@
         <v>36001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -4342,13 +4375,13 @@
         <v>77989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4396,13 @@
         <v>43077</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H9" s="7">
         <v>51</v>
@@ -4378,13 +4411,13 @@
         <v>31513</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M9" s="7">
         <v>116</v>
@@ -4393,13 +4426,13 @@
         <v>74590</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4447,13 @@
         <v>169646</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>222</v>
@@ -4429,13 +4462,13 @@
         <v>141220</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>467</v>
@@ -4444,13 +4477,13 @@
         <v>310865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4551,13 @@
         <v>35483</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>193</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -4533,13 +4566,13 @@
         <v>38970</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>132</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>107</v>
@@ -4548,13 +4581,13 @@
         <v>74453</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4602,13 @@
         <v>21423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -4584,13 +4617,13 @@
         <v>37471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4599,13 +4632,13 @@
         <v>58894</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4653,13 @@
         <v>128215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -4635,13 +4668,13 @@
         <v>110712</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>337</v>
@@ -4650,13 +4683,13 @@
         <v>238926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4757,13 @@
         <v>34706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>65</v>
@@ -4739,13 +4772,13 @@
         <v>45822</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -4754,13 +4787,13 @@
         <v>80529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4808,13 @@
         <v>27070</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4790,13 +4823,13 @@
         <v>20412</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4805,13 +4838,13 @@
         <v>47482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4859,13 @@
         <v>103774</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H18" s="7">
         <v>142</v>
@@ -4841,13 +4874,13 @@
         <v>99161</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -4856,13 +4889,13 @@
         <v>202934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4963,13 @@
         <v>138348</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -4945,13 +4978,13 @@
         <v>137863</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -4960,13 +4993,13 @@
         <v>276211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +5014,13 @@
         <v>115748</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H21" s="7">
         <v>162</v>
@@ -4996,13 +5029,13 @@
         <v>107548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M21" s="7">
         <v>330</v>
@@ -5011,13 +5044,13 @@
         <v>223296</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5065,13 @@
         <v>469996</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>669</v>
@@ -5047,13 +5080,13 @@
         <v>443719</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M22" s="7">
         <v>1336</v>
@@ -5062,13 +5095,13 @@
         <v>913715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,7 +5157,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2902-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2902-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8F08B6D-2B3F-4AA3-AE6B-500957E5ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB03DC1-1A1C-4B68-966B-D1773C5F7DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F75B10F-5D17-4C2E-8FDB-C9F06A1D3CA8}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{CBC8FAB7-87D1-4A52-ACEC-746784A01642}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="404">
   <si>
     <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2007 (Tasa respuesta: 97,01%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1213 +73,1183 @@
     <t>Solo biberon</t>
   </si>
   <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
   </si>
   <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2012 (Tasa respuesta: 98,48%)</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido durante la 5ª y 6ª semana en 2016 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>65,98%</t>
   </si>
   <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>14,24%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
   </si>
   <si>
     <t>64,91%</t>
   </si>
   <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>66,84%</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7947C61F-59C9-4312-8217-DA2CEE6F1A88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FFA8AE-5135-40DD-ACE4-0B624FDF86BB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1809,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>30476</v>
+        <v>26310</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1824,10 +1794,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>26310</v>
+        <v>30476</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1860,10 +1830,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>11143</v>
+        <v>8352</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1875,10 +1845,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>8352</v>
+        <v>11143</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1911,10 +1881,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D6" s="7">
-        <v>68017</v>
+        <v>64349</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1926,10 +1896,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I6" s="7">
-        <v>64349</v>
+        <v>68017</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1962,25 +1932,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>151</v>
+      </c>
+      <c r="D7" s="7">
+        <v>99011</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>165</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>109636</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>151</v>
-      </c>
-      <c r="I7" s="7">
-        <v>99011</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2015,10 +1985,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>64826</v>
+        <v>57465</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2030,10 +2000,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I8" s="7">
-        <v>57465</v>
+        <v>64826</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2066,10 +2036,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>38667</v>
+        <v>39609</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2081,10 +2051,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7">
-        <v>39609</v>
+        <v>38667</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2117,10 +2087,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D10" s="7">
-        <v>146749</v>
+        <v>152545</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2132,10 +2102,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="I10" s="7">
-        <v>152545</v>
+        <v>146749</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2168,25 +2138,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>374</v>
+      </c>
+      <c r="D11" s="7">
+        <v>249620</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>377</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>250241</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>374</v>
-      </c>
-      <c r="I11" s="7">
-        <v>249620</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2221,10 +2191,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7">
-        <v>36297</v>
+        <v>31556</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2236,10 +2206,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I12" s="7">
-        <v>31556</v>
+        <v>36297</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2272,10 +2242,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>19366</v>
+        <v>13993</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2287,10 +2257,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7">
-        <v>13993</v>
+        <v>19366</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2323,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D14" s="7">
-        <v>81071</v>
+        <v>78376</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2338,10 +2308,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I14" s="7">
-        <v>78376</v>
+        <v>81071</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2374,25 +2344,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>186</v>
+      </c>
+      <c r="D15" s="7">
+        <v>123925</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>205</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>136734</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>186</v>
-      </c>
-      <c r="I15" s="7">
-        <v>123925</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2427,10 +2397,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>43411</v>
+        <v>44860</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2442,19 +2412,19 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="7">
-        <v>44860</v>
+        <v>43411</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -2463,13 +2433,13 @@
         <v>88271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,34 +2448,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16363</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
         <v>34</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>22959</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16363</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -2514,13 +2484,13 @@
         <v>39322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,34 +2499,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>186</v>
+      </c>
+      <c r="D18" s="7">
+        <v>127218</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="7">
         <v>205</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>136314</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="7">
-        <v>186</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127218</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>391</v>
@@ -2565,13 +2535,13 @@
         <v>263532</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,25 +2550,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>278</v>
+      </c>
+      <c r="D19" s="7">
+        <v>188441</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>305</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>202684</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>278</v>
-      </c>
-      <c r="I19" s="7">
-        <v>188441</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2633,49 +2603,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>241</v>
+      </c>
+      <c r="D20" s="7">
+        <v>160191</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="7">
         <v>264</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>175009</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="7">
-        <v>241</v>
-      </c>
-      <c r="I20" s="7">
-        <v>160191</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>505</v>
       </c>
       <c r="N20" s="7">
-        <v>335201</v>
+        <v>335200</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,49 +2654,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>119</v>
+      </c>
+      <c r="D21" s="7">
+        <v>78317</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="7">
+      <c r="H21" s="7">
+        <v>136</v>
+      </c>
+      <c r="I21" s="7">
         <v>92135</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="7">
-        <v>119</v>
-      </c>
-      <c r="I21" s="7">
-        <v>78317</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>255</v>
       </c>
       <c r="N21" s="7">
-        <v>170452</v>
+        <v>170451</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,49 +2705,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>629</v>
+      </c>
+      <c r="D22" s="7">
+        <v>422489</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="7">
         <v>652</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>432150</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="7">
-        <v>629</v>
-      </c>
-      <c r="I22" s="7">
-        <v>422489</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>1281</v>
       </c>
       <c r="N22" s="7">
-        <v>854640</v>
+        <v>854639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,25 +2756,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>989</v>
+      </c>
+      <c r="D23" s="7">
+        <v>660997</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1052</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>699294</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>989</v>
-      </c>
-      <c r="I23" s="7">
-        <v>660997</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2819,7 +2789,7 @@
         <v>2041</v>
       </c>
       <c r="N23" s="7">
-        <v>1360292</v>
+        <v>1360291</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2833,7 +2803,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2853,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27371726-0A8A-4161-ACB7-270BF8302F96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA3023E-9017-4B68-99F8-743D9FEC4471}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2870,7 +2840,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2971,34 +2941,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44492</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="7">
         <v>62</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>41908</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="7">
-        <v>68</v>
-      </c>
-      <c r="I4" s="7">
-        <v>44492</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>130</v>
@@ -3007,13 +2977,13 @@
         <v>86401</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,34 +2992,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18865</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="7">
         <v>35</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>25208</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="7">
-        <v>29</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18865</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>64</v>
@@ -3058,13 +3028,13 @@
         <v>44073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,34 +3043,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>116</v>
+      </c>
+      <c r="D6" s="7">
+        <v>79032</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="7">
         <v>106</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>75652</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="7">
-        <v>116</v>
-      </c>
-      <c r="I6" s="7">
-        <v>79032</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M6" s="7">
         <v>222</v>
@@ -3109,13 +3079,13 @@
         <v>154684</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,25 +3094,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>213</v>
+      </c>
+      <c r="D7" s="7">
+        <v>142390</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>203</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>142768</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>213</v>
-      </c>
-      <c r="I7" s="7">
-        <v>142390</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3177,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D8" s="7">
-        <v>85257</v>
+        <v>64665</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>181</v>
@@ -3192,10 +3162,10 @@
         <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I8" s="7">
-        <v>64665</v>
+        <v>85257</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>183</v>
@@ -3228,10 +3198,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>29502</v>
+        <v>26161</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>189</v>
@@ -3243,19 +3213,19 @@
         <v>191</v>
       </c>
       <c r="H9" s="7">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
-        <v>26161</v>
+        <v>29502</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>80</v>
@@ -3264,13 +3234,13 @@
         <v>55664</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,28 +3249,28 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>207</v>
+      </c>
+      <c r="D10" s="7">
+        <v>144167</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="7">
         <v>208</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>150153</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="7">
-        <v>207</v>
-      </c>
-      <c r="I10" s="7">
-        <v>144167</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>200</v>
@@ -3330,25 +3300,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>338</v>
+      </c>
+      <c r="D11" s="7">
+        <v>234993</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>369</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>264912</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>338</v>
-      </c>
-      <c r="I11" s="7">
-        <v>234993</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3383,10 +3353,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>49138</v>
+        <v>47012</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>205</v>
@@ -3398,10 +3368,10 @@
         <v>207</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I12" s="7">
-        <v>47012</v>
+        <v>49138</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>208</v>
@@ -3419,13 +3389,13 @@
         <v>96149</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,34 +3404,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16515</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="7">
         <v>32</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>22258</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16515</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>56</v>
@@ -3470,13 +3440,13 @@
         <v>38773</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,34 +3455,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>132</v>
+      </c>
+      <c r="D14" s="7">
+        <v>93516</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="7">
         <v>119</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>83488</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H14" s="7">
-        <v>132</v>
-      </c>
-      <c r="I14" s="7">
-        <v>93516</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
@@ -3521,13 +3491,13 @@
         <v>177005</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3509,7 @@
         <v>223</v>
       </c>
       <c r="D15" s="7">
-        <v>154884</v>
+        <v>157043</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3554,7 +3524,7 @@
         <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>157043</v>
+        <v>154884</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3589,34 +3559,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45386</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="7">
         <v>85</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>57508</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="H16" s="7">
-        <v>65</v>
-      </c>
-      <c r="I16" s="7">
-        <v>45386</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>150</v>
@@ -3625,13 +3595,13 @@
         <v>102894</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,34 +3610,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7">
+        <v>19483</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7">
         <v>22</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>14552</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="H17" s="7">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7">
-        <v>19483</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -3676,13 +3646,13 @@
         <v>34035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,34 +3661,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>146</v>
+      </c>
+      <c r="D18" s="7">
+        <v>103060</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H18" s="7">
         <v>153</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>104526</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="H18" s="7">
-        <v>146</v>
-      </c>
-      <c r="I18" s="7">
-        <v>103060</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>299</v>
@@ -3727,13 +3697,13 @@
         <v>207586</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,25 +3712,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>238</v>
+      </c>
+      <c r="D19" s="7">
+        <v>167929</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>260</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>176586</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>238</v>
-      </c>
-      <c r="I19" s="7">
-        <v>167929</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3795,34 +3765,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>294</v>
+      </c>
+      <c r="D20" s="7">
+        <v>201554</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="7">
         <v>337</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>233811</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H20" s="7">
-        <v>294</v>
-      </c>
-      <c r="I20" s="7">
-        <v>201554</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>631</v>
@@ -3831,13 +3801,13 @@
         <v>435365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,34 +3816,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>117</v>
+      </c>
+      <c r="D21" s="7">
+        <v>81025</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H21" s="7">
         <v>132</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>91520</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21" s="7">
-        <v>117</v>
-      </c>
-      <c r="I21" s="7">
-        <v>81025</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>249</v>
@@ -3882,13 +3852,13 @@
         <v>172545</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,34 +3867,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>601</v>
+      </c>
+      <c r="D22" s="7">
+        <v>419776</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H22" s="7">
         <v>586</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>413819</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H22" s="7">
-        <v>601</v>
-      </c>
-      <c r="I22" s="7">
-        <v>419776</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>1187</v>
@@ -3933,13 +3903,13 @@
         <v>833594</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,25 +3918,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1012</v>
+      </c>
+      <c r="D23" s="7">
+        <v>702355</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1055</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>739150</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1012</v>
-      </c>
-      <c r="I23" s="7">
-        <v>702355</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3995,7 +3965,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4015,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179A85EB-24FE-42D1-AC8D-5990042121BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE84C23-EFFA-4349-9AFB-947FDCE987D6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4032,7 +4002,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4133,34 +4103,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17070</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" s="7">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>26170</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="7">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17070</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>67</v>
@@ -4169,13 +4139,13 @@
         <v>43241</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,34 +4154,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>18151</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" s="7">
         <v>36</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>24179</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H5" s="7">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18151</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -4220,13 +4190,13 @@
         <v>42329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,34 +4205,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>146</v>
+      </c>
+      <c r="D6" s="7">
+        <v>92626</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" s="7">
         <v>105</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>68362</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H6" s="7">
-        <v>146</v>
-      </c>
-      <c r="I6" s="7">
-        <v>92626</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M6" s="7">
         <v>251</v>
@@ -4271,13 +4241,13 @@
         <v>160989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,25 +4256,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>205</v>
+      </c>
+      <c r="D7" s="7">
+        <v>127847</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>179</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>118711</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>205</v>
-      </c>
-      <c r="I7" s="7">
-        <v>127847</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4339,34 +4309,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7">
+        <v>36001</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" s="7">
         <v>65</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>41988</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H8" s="7">
-        <v>56</v>
-      </c>
-      <c r="I8" s="7">
-        <v>36001</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>121</v>
@@ -4375,13 +4345,13 @@
         <v>77989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>320</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,34 +4360,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31513</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43077</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H9" s="7">
-        <v>51</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31513</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M9" s="7">
         <v>116</v>
@@ -4426,13 +4396,13 @@
         <v>74590</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,34 +4411,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>222</v>
+      </c>
+      <c r="D10" s="7">
+        <v>141220</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H10" s="7">
         <v>245</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>169646</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" s="7">
-        <v>222</v>
-      </c>
-      <c r="I10" s="7">
-        <v>141220</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>467</v>
@@ -4477,13 +4447,13 @@
         <v>310865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,25 +4462,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>329</v>
+      </c>
+      <c r="D11" s="7">
+        <v>208734</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>375</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>254711</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>329</v>
-      </c>
-      <c r="I11" s="7">
-        <v>208734</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4545,34 +4515,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>38970</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H12" s="7">
         <v>50</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>35483</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="H12" s="7">
-        <v>57</v>
-      </c>
-      <c r="I12" s="7">
-        <v>38970</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>194</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>107</v>
@@ -4581,13 +4551,13 @@
         <v>74453</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>12</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,34 +4566,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7">
+        <v>37471</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" s="7">
         <v>30</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>21423</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H13" s="7">
-        <v>53</v>
-      </c>
-      <c r="I13" s="7">
-        <v>37471</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4632,13 +4602,13 @@
         <v>58894</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,34 +4617,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>159</v>
+      </c>
+      <c r="D14" s="7">
+        <v>110712</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="7">
         <v>178</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>128215</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H14" s="7">
-        <v>159</v>
-      </c>
-      <c r="I14" s="7">
-        <v>110712</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>337</v>
@@ -4683,13 +4653,13 @@
         <v>238926</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,25 +4668,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>269</v>
+      </c>
+      <c r="D15" s="7">
+        <v>187153</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>258</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>185120</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>269</v>
-      </c>
-      <c r="I15" s="7">
-        <v>187153</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4751,34 +4721,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45822</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H16" s="7">
         <v>47</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>34706</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H16" s="7">
-        <v>65</v>
-      </c>
-      <c r="I16" s="7">
-        <v>45822</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -4787,13 +4757,13 @@
         <v>80529</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,34 +4772,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>28</v>
+      </c>
+      <c r="D17" s="7">
+        <v>20412</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H17" s="7">
         <v>37</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>27070</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H17" s="7">
-        <v>28</v>
-      </c>
-      <c r="I17" s="7">
-        <v>20412</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4838,13 +4808,13 @@
         <v>47482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,34 +4823,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>142</v>
+      </c>
+      <c r="D18" s="7">
+        <v>99161</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H18" s="7">
         <v>139</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>103774</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="H18" s="7">
-        <v>142</v>
-      </c>
-      <c r="I18" s="7">
-        <v>99161</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -4889,13 +4859,13 @@
         <v>202934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,25 +4874,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>235</v>
+      </c>
+      <c r="D19" s="7">
+        <v>165395</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>223</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>165550</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>235</v>
-      </c>
-      <c r="I19" s="7">
-        <v>165395</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4957,34 +4927,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>207</v>
+      </c>
+      <c r="D20" s="7">
+        <v>137863</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H20" s="7">
         <v>200</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>138348</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H20" s="7">
-        <v>207</v>
-      </c>
-      <c r="I20" s="7">
-        <v>137863</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -4993,13 +4963,13 @@
         <v>276211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,34 +4978,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>162</v>
+      </c>
+      <c r="D21" s="7">
+        <v>107548</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H21" s="7">
         <v>168</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>115748</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H21" s="7">
-        <v>162</v>
-      </c>
-      <c r="I21" s="7">
-        <v>107548</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M21" s="7">
         <v>330</v>
@@ -5044,13 +5014,13 @@
         <v>223296</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,34 +5029,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>669</v>
+      </c>
+      <c r="D22" s="7">
+        <v>443719</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H22" s="7">
         <v>667</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>469996</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H22" s="7">
-        <v>669</v>
-      </c>
-      <c r="I22" s="7">
-        <v>443719</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>1336</v>
@@ -5095,13 +5065,13 @@
         <v>913715</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>412</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,25 +5080,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1038</v>
+      </c>
+      <c r="D23" s="7">
+        <v>689130</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1035</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>724092</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1038</v>
-      </c>
-      <c r="I23" s="7">
-        <v>689130</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5157,7 +5127,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
